--- a/COVID19-Korea-2020-02-14.xlsx
+++ b/COVID19-Korea-2020-02-14.xlsx
@@ -13,80 +13,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="100">
   <si>
     <t>case</t>
   </si>
   <si>
+    <t>ncontact_2020-02-14_3677</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
-    <t>ncontact_2020-02-14_3677</t>
+    <t>event</t>
+  </si>
+  <si>
+    <t>nquaratine_2020-02-14_3677</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>KCDC_no (https://www.cdc.go.kr/board/board.es?mid=a20501000000&amp;bid=0015)</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>year_of_birth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>date_contact_min</t>
+  </si>
+  <si>
+    <t>date_contact_max</t>
+  </si>
+  <si>
+    <t>date_import</t>
   </si>
   <si>
     <t>suspected cases</t>
   </si>
   <si>
+    <t>date_onset</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>date_quarantine</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>nquaratine_2020-02-14_3677</t>
+    <t>date_self_quarantine</t>
+  </si>
+  <si>
+    <t>date_home_before_quarantine</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>KCDC_no (https://www.cdc.go.kr/board/board.es?mid=a20501000000&amp;bid=0015)</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>date_contact_min</t>
-  </si>
-  <si>
-    <t>date_contact_max</t>
+    <t>date_confirm</t>
   </si>
   <si>
     <t>date_accessed (based on Korean time)</t>
   </si>
   <si>
-    <t>date_import</t>
+    <t>source</t>
   </si>
   <si>
     <t>note</t>
   </si>
   <si>
-    <t>date_onset</t>
-  </si>
-  <si>
-    <t>date_quarantine</t>
-  </si>
-  <si>
-    <t>date_self_quarantine</t>
-  </si>
-  <si>
-    <t>date_home_before_quarantine</t>
-  </si>
-  <si>
-    <t>date_confirm</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>import_source</t>
   </si>
   <si>
@@ -102,19 +105,28 @@
     <t>date_last_accessed</t>
   </si>
   <si>
+    <t>first case confirmed</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>first case confirmed</t>
+    <t>raised the alart level to yellow (2 out of 4 levels)</t>
+  </si>
+  <si>
+    <t>expanded the definition of PUI</t>
+  </si>
+  <si>
+    <t>fever or respiratory symptoms after visiting Wuhan -&gt; pneumonia with radiological evidence after visiting China</t>
   </si>
   <si>
     <t>import</t>
   </si>
   <si>
-    <t>raised the alart level to yellow (2 out of 4 levels)</t>
+    <t>raised the alart level to orange (3 out of 4 levels)</t>
   </si>
   <si>
     <t>Hubei</t>
@@ -123,58 +135,70 @@
     <t>fever, chills, muscle aches</t>
   </si>
   <si>
-    <t>expanded the definition of PUI</t>
-  </si>
-  <si>
-    <t>fever or respiratory symptoms after visiting Wuhan -&gt; pneumonia with radiological evidence after visiting China</t>
+    <t>3607, 3608</t>
+  </si>
+  <si>
+    <t>realtime PCR nCoV testing available</t>
   </si>
   <si>
     <t>3605, 3650</t>
   </si>
   <si>
-    <t>raised the alart level to orange (3 out of 4 levels)</t>
+    <t>released interim guide for labs</t>
+  </si>
+  <si>
+    <t>expanded the definition of suspected cases (no longer using PUI)</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>realtime PCR nCoV testing available</t>
-  </si>
-  <si>
-    <t>released interim guide for labs</t>
+    <t>I based on travel history and contact history, and at the discretion of clinicians</t>
+  </si>
+  <si>
+    <t>released testing tool to private clinics</t>
   </si>
   <si>
     <t>fever, sore throat, cough</t>
   </si>
   <si>
-    <t>expanded the definition of suspected cases (no longer using PUI)</t>
-  </si>
-  <si>
     <t>3613, 3644</t>
   </si>
   <si>
-    <t>I based on travel history and contact history, and at the discretion of clinicians</t>
-  </si>
-  <si>
-    <t>released testing tool to private clinics</t>
-  </si>
-  <si>
-    <t>3607, 3608</t>
-  </si>
-  <si>
     <t>fever, chills, cough, sputum</t>
   </si>
   <si>
+    <t>3623, 3628</t>
+  </si>
+  <si>
+    <t>3 more cases were identified after the report was released; other values may be inaccurate</t>
+  </si>
+  <si>
     <t>fever, muscle ache</t>
   </si>
   <si>
+    <t>1 more case was identified after the report was released; other values may be inaccurate</t>
+  </si>
+  <si>
     <t>3617, 3661</t>
   </si>
   <si>
-    <t>3623, 3628</t>
-  </si>
-  <si>
-    <t>3 more cases were identified after the report was released; other values may be inaccurate</t>
+    <t>3651, 3653</t>
+  </si>
+  <si>
+    <t>3656, 3658</t>
+  </si>
+  <si>
+    <t>3659, 3661, 3662</t>
+  </si>
+  <si>
+    <t>3664, 3665</t>
+  </si>
+  <si>
+    <t>3667, 3668, 3669</t>
+  </si>
+  <si>
+    <t>3670, 3672</t>
   </si>
   <si>
     <t>cough, malaise</t>
@@ -183,34 +207,13 @@
     <t>asthma</t>
   </si>
   <si>
-    <t>1 more case was identified after the report was released; other values may be inaccurate</t>
+    <t>3673, 3674, 3675</t>
   </si>
   <si>
     <t>3625, 3630</t>
   </si>
   <si>
-    <t>3651, 3653</t>
-  </si>
-  <si>
-    <t>3656, 3658</t>
-  </si>
-  <si>
-    <t>3659, 3661, 3662</t>
-  </si>
-  <si>
-    <t>3664, 3665</t>
-  </si>
-  <si>
-    <t>3667, 3668, 3669</t>
-  </si>
-  <si>
-    <t>3670, 3672</t>
-  </si>
-  <si>
     <t>symptomatic</t>
-  </si>
-  <si>
-    <t>3673, 3674, 3675</t>
   </si>
   <si>
     <t>3625, 3630, 3632</t>
@@ -616,7 +619,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="15" max="18" width="15.14"/>
+    <col customWidth="1" min="16" max="19" width="15.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -624,46 +627,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>25</v>
@@ -675,10 +678,13 @@
         <v>27</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -694,50 +700,53 @@
       <c r="D2" s="1">
         <v>35.0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
+      <c r="E2" s="2">
+        <v>1984.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="3">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3">
         <v>43848.0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>43849.0</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>43848.0</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>43849.0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="3">
+        <v>31</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="3">
         <v>43850.0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="3">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3">
         <v>43867.0</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="3">
+      <c r="R2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -754,50 +763,53 @@
       <c r="D3" s="1">
         <v>55.0</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
+      <c r="E3" s="2">
+        <v>1964.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3">
+        <v>45</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3">
         <v>43840.0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>43852.0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="J3" s="3">
         <v>43840.0</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="3">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="3">
         <v>43852.0</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>43854.0</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="3">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3">
         <v>43866.0</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T3" s="3">
+      <c r="R3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U3" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -814,50 +826,53 @@
       <c r="D4" s="1">
         <v>54.0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
+      <c r="E4" s="2">
+        <v>1966.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3">
-        <v>43850.0</v>
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H4" s="3">
         <v>43850.0</v>
       </c>
       <c r="I4" s="3">
+        <v>43850.0</v>
+      </c>
+      <c r="J4" s="3">
         <v>43852.0</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>43855.0</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="3">
         <v>43856.0</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="3">
+        <v>36</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="3">
         <v>43873.0</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1">
+      <c r="R4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1">
         <v>3616.0</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -874,50 +889,53 @@
       <c r="D5" s="1">
         <v>55.0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
+      <c r="E5" s="2">
+        <v>1964.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3">
-        <v>43850.0</v>
+        <v>45</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H5" s="3">
         <v>43850.0</v>
       </c>
       <c r="I5" s="3">
+        <v>43850.0</v>
+      </c>
+      <c r="J5" s="3">
         <v>43851.0</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>43856.0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="3">
         <v>43857.0</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="3">
+        <v>36</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="3">
         <v>43870.0</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="3">
+      <c r="R5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -931,53 +949,56 @@
       <c r="C6" s="2">
         <v>3.0</v>
       </c>
-      <c r="D6" s="1">
-        <v>32.0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
+      <c r="D6" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1987.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3">
-        <v>43854.0</v>
+        <v>45</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H6" s="3">
         <v>43854.0</v>
       </c>
       <c r="I6" s="3">
+        <v>43854.0</v>
+      </c>
+      <c r="J6" s="3">
         <v>43856.0</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="3">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="3">
         <v>43860.0</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T6" s="3">
+        <v>63</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -991,48 +1012,51 @@
       <c r="C7" s="2">
         <v>4.0</v>
       </c>
-      <c r="D7" s="1">
-        <v>56.0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="3">
-        <v>43852.0</v>
+      <c r="D7" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1964.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="G7" s="3">
         <v>43852.0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
+      <c r="H7" s="3">
+        <v>43852.0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="3">
+        <v>31</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="3">
         <v>43860.0</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>3.0</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="2" t="s">
+      <c r="P7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="4">
+      <c r="S7" s="1"/>
+      <c r="T7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U7" s="4">
         <v>43876.0</v>
       </c>
     </row>
@@ -1049,48 +1073,51 @@
       <c r="D8" s="1">
         <v>28.0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>40</v>
+      <c r="E8" s="2">
+        <v>1991.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="3">
-        <v>43853.0</v>
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H8" s="3">
         <v>43853.0</v>
       </c>
       <c r="I8" s="3">
+        <v>43853.0</v>
+      </c>
+      <c r="J8" s="3">
         <v>43856.0</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>43860.0</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="3">
+        <v>31</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="3">
         <v>43860.0</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1">
+        <v>36</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1">
         <v>3628.0</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1107,50 +1134,53 @@
       <c r="D9" s="1">
         <v>62.0</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
+      <c r="E9" s="2">
+        <v>1957.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="3">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="3">
         <v>43851.0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>43853.0</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>43851.0</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="3">
+        <v>31</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="3">
         <v>43854.0</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>43861.0</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="3">
+        <v>36</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="3">
         <v>43873.0</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R9" s="3"/>
-      <c r="S9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T9" s="3">
+      <c r="S9" s="3"/>
+      <c r="T9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U9" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1167,48 +1197,51 @@
       <c r="D10" s="1">
         <v>28.0</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
+        <v>1992.0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3">
         <v>43854.0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>43859.0</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="4">
         <v>43860.0</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="3">
+        <v>31</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="3">
         <v>43860.0</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>43861.0</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>5.0</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="3">
+      <c r="P10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U10" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1222,53 +1255,56 @@
       <c r="C11" s="2">
         <v>42.0</v>
       </c>
-      <c r="D11" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>29</v>
+      <c r="D11" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1966.0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="3">
         <v>43859.0</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="3">
         <v>43859.0</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="3">
+        <v>31</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="3">
         <v>43860.0</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>43861.0</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>6.0</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="P11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="3">
         <v>43872.0</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="3">
+      <c r="S11" s="3"/>
+      <c r="T11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1285,48 +1321,51 @@
       <c r="D12" s="1">
         <v>25.0</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
+      <c r="E12" s="2">
+        <v>1995.0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="3">
         <v>43860.0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="3">
         <v>43860.0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="3">
+        <v>31</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="3">
         <v>43860.0</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>43861.0</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>6.0</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1" t="s">
+      <c r="P12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="3">
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1340,51 +1379,54 @@
       <c r="C13" s="2">
         <v>19.0</v>
       </c>
-      <c r="D13" s="1">
-        <v>49.0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
+      <c r="D13" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1971.0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3">
-        <v>43849.0</v>
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H13" s="3">
         <v>43849.0</v>
       </c>
       <c r="I13" s="3">
+        <v>43849.0</v>
+      </c>
+      <c r="J13" s="3">
         <v>43852.0</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="3">
         <v>43860.0</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="3">
         <v>43862.0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="T13" s="3">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U13" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1401,40 +1443,43 @@
       <c r="D14" s="1">
         <v>28.0</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
+      <c r="E14" s="2">
+        <v>1992.0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="3">
-        <v>43861.0</v>
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H14" s="3">
         <v>43861.0</v>
       </c>
-      <c r="J14" s="3">
+      <c r="I14" s="3">
         <v>43861.0</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>30</v>
+      <c r="K14" s="3">
+        <v>43861.0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="3">
+        <v>31</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="3">
         <v>43863.0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="1">
+      <c r="O14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T14" s="1">
         <v>3635.0</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1451,45 +1496,48 @@
       <c r="D15" s="1">
         <v>40.0</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
+      <c r="E15" s="2">
+        <v>1980.0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="3">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="3">
         <v>43861.0</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="3">
         <v>43863.0</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N15" s="3">
         <v>43863.0</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>12.0</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T15" s="3">
+      <c r="P15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1506,48 +1554,51 @@
       <c r="D16" s="1">
         <v>43.0</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
+      <c r="E16" s="2">
+        <v>1977.0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="3">
-        <v>43850.0</v>
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="3">
         <v>43850.0</v>
       </c>
       <c r="I16" s="3">
+        <v>43850.0</v>
+      </c>
+      <c r="J16" s="3">
         <v>43862.0</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="3">
         <v>43859.0</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="3">
+      <c r="M16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="3">
         <v>43863.0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T16" s="3">
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1564,48 +1615,51 @@
       <c r="D17" s="1">
         <v>42.0</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="E17" s="2">
+        <v>1977.0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3">
         <v>43845.0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>43849.0</v>
       </c>
       <c r="H17" s="3">
         <v>43849.0</v>
       </c>
       <c r="I17" s="3">
+        <v>43849.0</v>
+      </c>
+      <c r="J17" s="3">
         <v>43855.0</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43864.0</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="3">
+        <v>31</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="3">
         <v>43865.0</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T17" s="3">
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1619,53 +1673,56 @@
       <c r="C18" s="2">
         <v>33.0</v>
       </c>
-      <c r="D18" s="1">
-        <v>38.0</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="D18" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1982.0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="3">
         <v>43848.0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>43853.0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>43854.0</v>
       </c>
       <c r="I18" s="3">
         <v>43854.0</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J18" s="3">
+        <v>43854.0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="3">
         <v>43865.0</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="3">
         <v>43866.0</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P18" s="3">
+        <v>36</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="3">
         <v>43873.0</v>
       </c>
-      <c r="Q18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="R18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U18" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1679,46 +1736,49 @@
       <c r="C19" s="1">
         <v>7.0</v>
       </c>
-      <c r="D19" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="D19" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1999.0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3">
         <v>43845.0</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>43857.0</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="3">
         <v>43865.0</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M19" s="3">
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="3">
         <v>43866.0</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>16.0</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T19" s="4">
+      <c r="P19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U19" s="4">
         <v>43876.0</v>
       </c>
     </row>
@@ -1735,45 +1795,48 @@
       <c r="D20" s="1">
         <v>36.0</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20" s="2">
+        <v>1983.0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3">
         <v>43848.0</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>43853.0</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>43854.0</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="3">
         <v>43866.0</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N20" s="3">
         <v>43866.0</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T20" s="3">
+        <v>36</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U20" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1790,41 +1853,44 @@
       <c r="D21" s="1">
         <v>41.0</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="3">
+      <c r="E21" s="2">
+        <v>1978.0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3">
         <v>43863.0</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="3">
         <v>43866.0</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>43863.0</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="3">
         <v>43866.0</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>15.0</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="P21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T21" s="1">
         <v>3648.0</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1841,43 +1907,46 @@
       <c r="D22" s="1">
         <v>59.0</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="3">
-        <v>43859.0</v>
+      <c r="E22" s="2">
+        <v>1960.0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G22" s="3">
         <v>43859.0</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="H22" s="3">
+        <v>43859.0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="3">
         <v>43866.0</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43861.0</v>
       </c>
-      <c r="L22" s="8">
+      <c r="M22" s="8">
         <v>43860.0</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43866.0</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>6.0</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S22" s="1" t="s">
+      <c r="P22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1894,40 +1963,43 @@
       <c r="D23" s="1">
         <v>46.0</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="E23" s="2">
+        <v>1973.0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="3">
         <v>43845.0</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43864.0</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="3">
         <v>43865.0</v>
       </c>
-      <c r="L23" s="8">
+      <c r="M23" s="8">
         <v>43866.0</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>43867.0</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>16.0</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="9" t="s">
+      <c r="P23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1941,46 +2013,49 @@
       <c r="C24" s="1">
         <v>23.0</v>
       </c>
-      <c r="D24" s="1">
-        <v>58.0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>29</v>
+      <c r="D24" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1962.0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="3">
-        <v>43853.0</v>
+        <v>32</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H24" s="3">
         <v>43853.0</v>
       </c>
       <c r="I24" s="3">
+        <v>43853.0</v>
+      </c>
+      <c r="J24" s="3">
         <v>43864.0</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="L24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N24" s="3">
         <v>43867.0</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="T24" s="3">
+        <v>36</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U24" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -1997,43 +2072,46 @@
       <c r="D25" s="1">
         <v>28.0</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>40</v>
+      <c r="E25" s="2">
+        <v>1992.0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="3">
-        <v>43861.0</v>
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H25" s="3">
         <v>43861.0</v>
       </c>
-      <c r="J25" s="3">
+      <c r="I25" s="3">
         <v>43861.0</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>30</v>
+      <c r="K25" s="3">
+        <v>43861.0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M25" s="3">
+        <v>31</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="3">
         <v>43867.0</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S25" s="1">
+        <v>36</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T25" s="1">
         <v>3651.0</v>
       </c>
-      <c r="T25" s="3">
+      <c r="U25" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -2050,46 +2128,49 @@
       <c r="D26" s="1">
         <v>73.0</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26" s="2">
+        <v>1946.0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="3">
         <v>43861.0</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43867.0</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="3">
         <v>43867.0</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="3">
+        <v>31</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="3">
         <v>43867.0</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>43870.0</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="O26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S26" s="1">
+        <v>93</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="1">
         <v>3661.0</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -2106,46 +2187,49 @@
       <c r="D27" s="1">
         <v>51.0</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>40</v>
+      <c r="E27" s="2">
+        <v>1968.0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="3">
-        <v>43861.0</v>
+        <v>45</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="H27" s="3">
         <v>43861.0</v>
       </c>
       <c r="I27" s="3">
+        <v>43861.0</v>
+      </c>
+      <c r="J27" s="3">
         <v>43869.0</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="3">
+        <v>31</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="3">
         <v>43870.0</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="O27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S27" s="1">
+        <v>36</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="T27" s="1">
         <v>3662.0</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -2162,46 +2246,49 @@
       <c r="D28" s="1">
         <v>37.0</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>29</v>
+      <c r="E28" s="2">
+        <v>1982.0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="3">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="3">
         <v>43854.0</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <v>43861.0</v>
       </c>
-      <c r="I28" s="3">
+      <c r="J28" s="3">
         <v>43854.0</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" s="3">
+        <v>43870.0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M28" s="3">
-        <v>43870.0</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U28" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -2218,44 +2305,47 @@
       <c r="D29" s="1">
         <v>30.0</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="2">
+        <v>1989.0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="3">
         <v>43850.0</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>43856.0</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="I29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="3">
         <v>43856.0</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3">
         <v>43872.0</v>
       </c>
-      <c r="N29" s="1">
+      <c r="O29" s="1">
         <v>3.0</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>97</v>
+      <c r="P29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U29" s="3">
         <v>43875.0</v>
       </c>
     </row>
@@ -2276,28 +2366,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -2317,10 +2407,10 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -2363,7 +2453,7 @@
         <v>0.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3">
         <v>43870.0</v>
@@ -2556,7 +2646,7 @@
         <v>38.0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="4">
         <v>43870.0</v>
@@ -2691,7 +2781,7 @@
         <v>43870.0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
@@ -2717,7 +2807,7 @@
         <v>43870.0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
@@ -2737,7 +2827,7 @@
         <v>327.0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" s="4">
         <v>43870.0</v>
@@ -2760,7 +2850,7 @@
         <v>939.0</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G22" s="4">
         <v>43870.0</v>
@@ -2783,7 +2873,7 @@
         <v>888.0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G23" s="4">
         <v>43870.0</v>
@@ -2806,7 +2896,7 @@
         <v>531.0</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="4">
         <v>43871.0</v>
@@ -2829,7 +2919,7 @@
         <v>762.0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G25" s="4">
         <v>43872.0</v>
@@ -2852,7 +2942,7 @@
         <v>785.0</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G26" s="4">
         <v>43873.0</v>
@@ -2875,7 +2965,7 @@
         <v>562.0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="3">
         <v>43875.0</v>
@@ -2921,16 +3011,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -2938,7 +3028,7 @@
         <v>43850.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1">
@@ -2958,10 +3048,10 @@
         <v>43856.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -2969,7 +3059,7 @@
         <v>43857.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
@@ -2990,7 +3080,7 @@
         <v>43860.0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
